--- a/spreadies/28-10-22-drilling with pecking.xlsx
+++ b/spreadies/28-10-22-drilling with pecking.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kings\Desktop\Uni\2022 t3\Thesis_robotic_drilling\spreadies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Uni\Thesis\Thesis_robotic_drilling\spreadies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF18E51-DA9C-44E2-964E-242BBE2A117B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC70DEB-A576-45BE-AE5B-3ABD9A04A933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -556,28 +556,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="19.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="35.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="35.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -585,7 +585,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -596,7 +596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -607,7 +607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -615,17 +615,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -639,12 +639,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -677,7 +677,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
@@ -725,7 +725,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
@@ -759,7 +759,7 @@
       </c>
       <c r="R11" s="6"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
@@ -823,7 +823,7 @@
         <v>5.8125</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
@@ -857,7 +857,7 @@
       </c>
       <c r="R13" s="6"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14">
         <v>3.73</v>
@@ -885,7 +885,7 @@
       </c>
       <c r="R14" s="6"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15">
         <v>3.84</v>
@@ -913,7 +913,7 @@
       </c>
       <c r="R15" s="6"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16">
         <v>3.77</v>
@@ -941,7 +941,7 @@
       </c>
       <c r="R16" s="6"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>24</v>
       </c>
@@ -955,7 +955,7 @@
       </c>
       <c r="R17" s="6"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>26</v>
       </c>
@@ -969,7 +969,7 @@
       </c>
       <c r="R18" s="6"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>27</v>
       </c>
@@ -983,7 +983,7 @@
       </c>
       <c r="R19" s="6"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>28</v>
       </c>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="R20" s="6"/>
     </row>
-    <row r="21" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>29</v>
       </c>
@@ -1039,7 +1039,7 @@
       <c r="Q21" s="8"/>
       <c r="R21" s="9"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>31</v>
       </c>
@@ -1058,7 +1058,7 @@
       <c r="K22" s="3"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>20</v>
       </c>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="L23" s="6"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>21</v>
       </c>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
@@ -1111,25 +1111,25 @@
       </c>
       <c r="L25" s="6"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="E26" s="6"/>
       <c r="G26" s="5"/>
       <c r="L26" s="6"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="E27" s="6"/>
       <c r="G27" s="5"/>
       <c r="L27" s="6"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="E28" s="6"/>
       <c r="G28" s="5"/>
       <c r="L28" s="6"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>26</v>
       </c>
@@ -1139,7 +1139,7 @@
       </c>
       <c r="L29" s="6"/>
     </row>
-    <row r="30" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>27</v>
       </c>

--- a/spreadies/28-10-22-drilling with pecking.xlsx
+++ b/spreadies/28-10-22-drilling with pecking.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Uni\Thesis\Thesis_robotic_drilling\spreadies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC70DEB-A576-45BE-AE5B-3ABD9A04A933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7A0CE7-A908-4852-92F1-B7E71016FC71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="wood" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,8 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="51">
   <si>
     <t>Parameters</t>
   </si>
@@ -146,13 +169,65 @@
   </si>
   <si>
     <t>CHECK CONFIG FILE FOR PARAMETS</t>
+  </si>
+  <si>
+    <t>Drill test</t>
+  </si>
+  <si>
+    <t>z start</t>
+  </si>
+  <si>
+    <t>z set</t>
+  </si>
+  <si>
+    <t>z pedant after moving</t>
+  </si>
+  <si>
+    <t>z hole depth</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>c2</t>
+  </si>
+  <si>
+    <t>c3</t>
+  </si>
+  <si>
+    <t>c4</t>
+  </si>
+  <si>
+    <t>Time period</t>
+  </si>
+  <si>
+    <t>Drill voltage</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Accruacy</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,10 +333,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -274,9 +350,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -554,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S30"/>
+  <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,7 +983,8 @@
       <c r="L15" s="6"/>
       <c r="N15" s="5"/>
       <c r="O15">
-        <v>5</v>
+        <f>AVERAGE(O14,O16)</f>
+        <v>3.6349999999999998</v>
       </c>
       <c r="P15">
         <v>3.71</v>
@@ -1156,6 +1237,455 @@
       <c r="K30" s="8"/>
       <c r="L30" s="9"/>
     </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <v>15</v>
+      </c>
+      <c r="E34" s="6">
+        <v>20</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O34">
+        <v>5</v>
+      </c>
+      <c r="P34">
+        <v>10</v>
+      </c>
+      <c r="Q34">
+        <v>15</v>
+      </c>
+      <c r="R34" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35">
+        <v>6.74</v>
+      </c>
+      <c r="C35">
+        <v>10.78</v>
+      </c>
+      <c r="D35">
+        <v>17.11</v>
+      </c>
+      <c r="E35" s="6">
+        <v>23.13</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O35">
+        <v>4</v>
+      </c>
+      <c r="P35">
+        <v>9.52</v>
+      </c>
+      <c r="Q35">
+        <v>13.23</v>
+      </c>
+      <c r="R35" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36">
+        <f>ABS(B34-B35)</f>
+        <v>1.7400000000000002</v>
+      </c>
+      <c r="C36">
+        <f>ABS(C34-C35)</f>
+        <v>0.77999999999999936</v>
+      </c>
+      <c r="D36">
+        <f>ABS(D34-D35)</f>
+        <v>2.1099999999999994</v>
+      </c>
+      <c r="E36">
+        <f>ABS(E34-E35)</f>
+        <v>3.129999999999999</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="O36">
+        <f>ABS(O34-O35)</f>
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <f>ABS(P34-P35)</f>
+        <v>0.48000000000000043</v>
+      </c>
+      <c r="Q36">
+        <f>ABS(Q34-Q35)</f>
+        <v>1.7699999999999996</v>
+      </c>
+      <c r="R36">
+        <f>ABS(R34-R35)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="11">
+        <f>1-B36/B34</f>
+        <v>0.65199999999999991</v>
+      </c>
+      <c r="C37" s="11">
+        <f>1-C36/C34</f>
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="D37" s="11">
+        <f>1-D36/D34</f>
+        <v>0.85933333333333339</v>
+      </c>
+      <c r="E37" s="11">
+        <f>1-E36/E34</f>
+        <v>0.84350000000000003</v>
+      </c>
+      <c r="N37" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="O37" s="11">
+        <f>1-O36/O34</f>
+        <v>0.8</v>
+      </c>
+      <c r="P37" s="11">
+        <f>1-P36/P34</f>
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="Q37" s="11">
+        <f>1-Q36/Q34</f>
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="R37" s="11">
+        <f>1-R36/R34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="R38" s="6"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>3.77</v>
+      </c>
+      <c r="C39">
+        <v>3.78</v>
+      </c>
+      <c r="D39">
+        <v>3.8</v>
+      </c>
+      <c r="E39" s="6">
+        <v>3.83</v>
+      </c>
+      <c r="N39" s="5">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>3.68</v>
+      </c>
+      <c r="P39">
+        <v>3.81</v>
+      </c>
+      <c r="Q39">
+        <v>3.69</v>
+      </c>
+      <c r="R39" s="6"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>2</v>
+      </c>
+      <c r="B40">
+        <v>3.73</v>
+      </c>
+      <c r="C40">
+        <v>3.76</v>
+      </c>
+      <c r="D40">
+        <v>3.8</v>
+      </c>
+      <c r="E40" s="6">
+        <v>3.8</v>
+      </c>
+      <c r="N40" s="5">
+        <v>2</v>
+      </c>
+      <c r="O40">
+        <v>3.62</v>
+      </c>
+      <c r="P40">
+        <v>3.68</v>
+      </c>
+      <c r="Q40">
+        <v>3.68</v>
+      </c>
+      <c r="R40" s="6"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <v>3.84</v>
+      </c>
+      <c r="C41">
+        <v>3.97</v>
+      </c>
+      <c r="D41">
+        <v>3.92</v>
+      </c>
+      <c r="E41" s="6">
+        <v>3.86</v>
+      </c>
+      <c r="N41" s="5">
+        <v>3</v>
+      </c>
+      <c r="O41">
+        <v>5</v>
+      </c>
+      <c r="P41">
+        <v>3.71</v>
+      </c>
+      <c r="Q41">
+        <v>3.63</v>
+      </c>
+      <c r="R41" s="6"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="10">
+        <v>4</v>
+      </c>
+      <c r="B42">
+        <v>3.77</v>
+      </c>
+      <c r="C42">
+        <v>3.81</v>
+      </c>
+      <c r="D42">
+        <v>3.88</v>
+      </c>
+      <c r="E42" s="6">
+        <v>3.81</v>
+      </c>
+      <c r="N42" s="10">
+        <v>4</v>
+      </c>
+      <c r="O42">
+        <v>3.65</v>
+      </c>
+      <c r="P42">
+        <v>3.77</v>
+      </c>
+      <c r="Q42">
+        <v>3.61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89466C2-5AFA-45AF-B637-E422708A03BE}">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="61.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <f>Sheet1!B11</f>
+        <v>6.74</v>
+      </c>
+      <c r="F2" cm="1">
+        <f t="array" ref="F2:I2">TRANSPOSE(Sheet1!B13:B16)</f>
+        <v>3.77</v>
+      </c>
+      <c r="G2">
+        <v>3.73</v>
+      </c>
+      <c r="H2">
+        <v>3.84</v>
+      </c>
+      <c r="I2">
+        <v>3.77</v>
+      </c>
+      <c r="K2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <f>Sheet1!C11</f>
+        <v>10.78</v>
+      </c>
+      <c r="F3" cm="1">
+        <f t="array" ref="F3:I3">TRANSPOSE(Sheet1!C13:C16)</f>
+        <v>3.78</v>
+      </c>
+      <c r="G3">
+        <v>3.76</v>
+      </c>
+      <c r="H3">
+        <v>3.97</v>
+      </c>
+      <c r="I3">
+        <v>3.81</v>
+      </c>
+      <c r="K3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <f>Sheet1!D11</f>
+        <v>17.11</v>
+      </c>
+      <c r="F4" cm="1">
+        <f t="array" ref="F4:I4">TRANSPOSE(Sheet1!D13:D16)</f>
+        <v>3.8</v>
+      </c>
+      <c r="G4">
+        <v>3.8</v>
+      </c>
+      <c r="H4">
+        <v>3.92</v>
+      </c>
+      <c r="I4">
+        <v>3.88</v>
+      </c>
+      <c r="K4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <f>Sheet1!E11</f>
+        <v>23.13</v>
+      </c>
+      <c r="F5" cm="1">
+        <f t="array" ref="F5:I5">TRANSPOSE(Sheet1!E13:E16)</f>
+        <v>3.83</v>
+      </c>
+      <c r="G5">
+        <v>3.8</v>
+      </c>
+      <c r="H5">
+        <v>3.86</v>
+      </c>
+      <c r="I5">
+        <v>3.81</v>
+      </c>
+      <c r="K5">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
